--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-BD2-2022-1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE05E37C-08BC-4C16-87E3-CC4D215EBB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250632E4-C797-4038-9BF0-4BC5CB075674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Paolo Luis Lobatón Caparó</t>
   </si>
@@ -459,7 +467,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,46 +498,60 @@
         <v>44671</v>
       </c>
       <c r="E3" s="6">
-        <v>44615</v>
+        <f>C3+7</f>
+        <v>44677</v>
       </c>
       <c r="F3" s="6">
-        <v>44617</v>
+        <f>D3+7</f>
+        <v>44678</v>
       </c>
       <c r="G3" s="6">
-        <v>44594</v>
+        <f t="shared" ref="G3:R3" si="0">E3+7</f>
+        <v>44684</v>
       </c>
       <c r="H3" s="6">
-        <v>44624</v>
+        <f t="shared" si="0"/>
+        <v>44685</v>
       </c>
       <c r="I3" s="6">
-        <v>44629</v>
+        <f t="shared" si="0"/>
+        <v>44691</v>
       </c>
       <c r="J3" s="6">
-        <v>44631</v>
+        <f t="shared" si="0"/>
+        <v>44692</v>
       </c>
       <c r="K3" s="6">
-        <v>44636</v>
+        <f t="shared" si="0"/>
+        <v>44698</v>
       </c>
       <c r="L3" s="6">
-        <v>44638</v>
+        <f t="shared" si="0"/>
+        <v>44699</v>
       </c>
       <c r="M3" s="6">
-        <v>44643</v>
+        <f t="shared" si="0"/>
+        <v>44705</v>
       </c>
       <c r="N3" s="6">
-        <v>44645</v>
+        <f t="shared" si="0"/>
+        <v>44706</v>
       </c>
       <c r="O3" s="6">
-        <v>44650</v>
+        <f t="shared" si="0"/>
+        <v>44712</v>
       </c>
       <c r="P3" s="6">
-        <v>44621</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
       </c>
       <c r="Q3" s="6">
-        <v>44657</v>
+        <f t="shared" si="0"/>
+        <v>44719</v>
       </c>
       <c r="R3" s="6">
-        <v>44659</v>
+        <f t="shared" si="0"/>
+        <v>44720</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -542,8 +564,12 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -568,8 +594,12 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -594,8 +624,12 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -620,8 +654,12 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -646,8 +684,12 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -672,8 +714,12 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -698,8 +744,12 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -724,8 +774,12 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
